--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_15_transition_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_15_transition_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>zPJQJqU8vGhcZ7W</t>
+    <t>AAp0lXkNttwY8fB</t>
   </si>
   <si>
     <t>000018335.csv</t>
@@ -1562,7 +1562,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_12', 'sfh_10', 'sfh_33', 'sfh_8', 'sfh_34', 'sfh_37', 'sfh_36', 'sfh_15', 'sfh_35', 'sfh_17', 'sfh_30', 'sfh_25', 'sfh_2', 'sfh_14', 'sfh_3']</t>
+    <t>['sfh_33', 'sfh_34', 'sfh_17', 'sfh_37', 'sfh_8', 'sfh_14', 'sfh_2', 'sfh_30', 'sfh_15', 'sfh_3', 'sfh_36', 'sfh_35', 'sfh_29', 'sfh_10', 'sfh_25']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2832,7 +2832,7 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
@@ -3004,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>373</v>
@@ -3286,7 +3286,7 @@
         <v>488</v>
       </c>
       <c r="IN2">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3368,11 +3368,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>373</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3877,14 +3877,14 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>333</v>
       </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3893,7 +3893,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>373</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4311,11 +4311,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>333</v>
       </c>
       <c r="H5">
         <v>130</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>373</v>
@@ -4663,7 +4663,7 @@
         <v>488</v>
       </c>
       <c r="IN5">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4745,7 +4745,7 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
@@ -4917,7 +4917,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>373</v>
@@ -5145,7 +5145,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5227,11 +5227,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5240,7 +5240,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>373</v>
@@ -5681,7 +5681,7 @@
         <v>488</v>
       </c>
       <c r="IN7">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5763,7 +5763,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
@@ -5935,7 +5935,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>373</v>
@@ -6217,7 +6217,7 @@
         <v>488</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6274,7 +6274,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6289,7 +6289,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>501</v>
@@ -6338,11 +6338,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6351,7 +6351,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6510,7 +6510,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>373</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>502</v>
@@ -6901,14 +6901,14 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>333</v>
       </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="H10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6917,7 +6917,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>373</v>
@@ -7253,7 +7253,7 @@
         <v>488</v>
       </c>
       <c r="IN10">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7335,11 +7335,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7348,7 +7348,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7507,7 +7507,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>373</v>
@@ -7762,7 +7762,7 @@
         <v>488</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7819,7 +7819,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7834,7 +7834,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7849,7 +7849,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7862,11 +7862,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>333</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>373</v>
@@ -8214,7 +8214,7 @@
         <v>488</v>
       </c>
       <c r="IN12">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8296,7 +8296,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
@@ -8468,7 +8468,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>373</v>
@@ -8750,7 +8750,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8832,11 +8832,8 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>333</v>
       </c>
       <c r="H14">
         <v>130</v>
@@ -8992,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>373</v>
@@ -9235,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9244,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9253,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9266,11 +9263,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>4</v>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9279,7 +9276,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9438,7 +9435,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>373</v>
@@ -9693,7 +9690,7 @@
         <v>488</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9744,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9753,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9762,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9775,11 +9772,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>333</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -9935,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>373</v>
@@ -10178,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10187,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10196,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10209,11 +10206,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>333</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -10369,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>373</v>
@@ -10561,7 +10558,7 @@
         <v>488</v>
       </c>
       <c r="IN17">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10612,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10621,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10630,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10643,11 +10640,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>3</v>
+      <c r="G18">
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10656,7 +10653,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10815,7 +10812,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>373</v>
@@ -11097,7 +11094,7 @@
         <v>488</v>
       </c>
       <c r="IN18">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -11148,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11157,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11166,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11179,14 +11176,14 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>333</v>
       </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
       <c r="H19">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -11195,7 +11192,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11339,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>373</v>
@@ -11582,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11591,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11600,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11613,11 +11610,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11626,7 +11623,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11785,7 +11782,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>373</v>
@@ -12040,7 +12037,7 @@
         <v>488</v>
       </c>
       <c r="IN20">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -12091,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12100,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12109,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12122,11 +12119,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>3</v>
+      <c r="G21">
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -12135,7 +12132,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12294,7 +12291,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>373</v>
@@ -12549,7 +12546,7 @@
         <v>488</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12600,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12609,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12618,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12631,11 +12628,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>4</v>
+      <c r="G22">
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12644,7 +12641,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12803,7 +12800,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>373</v>
@@ -13058,7 +13055,7 @@
         <v>488</v>
       </c>
       <c r="IN22">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -13115,7 +13112,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13124,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13133,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13146,11 +13143,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -13159,7 +13156,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -13318,7 +13315,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>373</v>
@@ -13600,7 +13597,7 @@
         <v>488</v>
       </c>
       <c r="IN23">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13657,7 +13654,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13672,7 +13669,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13681,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>503</v>
@@ -13721,11 +13718,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13734,7 +13731,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13893,7 +13890,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>373</v>
@@ -14148,7 +14145,7 @@
         <v>488</v>
       </c>
       <c r="IN24">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -14199,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14208,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14217,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14230,11 +14227,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>3</v>
+      <c r="G25">
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -14243,7 +14240,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -14402,7 +14399,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>373</v>
@@ -14657,7 +14654,7 @@
         <v>488</v>
       </c>
       <c r="IN25">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14708,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14717,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14726,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14739,11 +14736,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14752,7 +14749,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14911,7 +14908,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>373</v>
@@ -15250,7 +15247,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15259,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15268,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15281,14 +15278,14 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>333</v>
       </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -15297,7 +15294,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15441,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>373</v>
@@ -15684,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15693,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15702,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15715,11 +15712,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>4</v>
+      <c r="G28">
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15728,7 +15725,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15887,7 +15884,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>373</v>
@@ -16169,7 +16166,7 @@
         <v>488</v>
       </c>
       <c r="IN28">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16226,7 +16223,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16235,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16244,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16257,7 +16254,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
@@ -16429,7 +16426,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>373</v>
@@ -16714,7 +16711,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16723,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16732,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16745,11 +16742,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16758,7 +16755,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16917,7 +16914,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>373</v>
@@ -17199,7 +17196,7 @@
         <v>488</v>
       </c>
       <c r="IN30">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -17250,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17259,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17268,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>504</v>
@@ -17335,7 +17332,10 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>373</v>
@@ -17684,7 +17684,7 @@
         <v>488</v>
       </c>
       <c r="IN31">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17766,14 +17766,14 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>333</v>
       </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
       <c r="H32">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17782,7 +17782,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>373</v>
@@ -18118,7 +18118,7 @@
         <v>488</v>
       </c>
       <c r="IN32">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18200,7 +18200,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18372,7 +18372,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>373</v>
@@ -18654,7 +18654,7 @@
         <v>488</v>
       </c>
       <c r="IN33">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18714,7 +18714,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18723,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18736,7 +18736,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
@@ -18908,7 +18908,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>373</v>
@@ -19190,7 +19190,7 @@
         <v>488</v>
       </c>
       <c r="IN34">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>505</v>
@@ -19326,14 +19326,14 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>333</v>
       </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
       <c r="H35">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19342,7 +19342,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>373</v>
@@ -19678,7 +19678,7 @@
         <v>488</v>
       </c>
       <c r="IN35">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19760,14 +19760,14 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>333</v>
       </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19776,7 +19776,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>373</v>
@@ -20112,7 +20112,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -20163,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20181,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20194,14 +20194,14 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>333</v>
       </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
       <c r="H37">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -20210,7 +20210,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>373</v>
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20606,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20628,14 +20628,14 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>333</v>
       </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
       <c r="H38">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20644,7 +20644,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20788,7 +20788,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>373</v>
@@ -20980,7 +20980,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -21031,7 +21031,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -21049,7 +21049,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -21062,11 +21062,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
         <v>333</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>373</v>
@@ -21465,7 +21465,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21496,7 +21496,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21668,7 +21668,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>373</v>
@@ -21950,7 +21950,7 @@
         <v>488</v>
       </c>
       <c r="IN40">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -22001,7 +22001,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -22019,7 +22019,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22052,7 +22052,7 @@
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>509</v>
@@ -22171,7 +22171,7 @@
         <v>488</v>
       </c>
       <c r="S2">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="T2">
         <v>1</v>
